--- a/src/main/resources/test_data/forgot_result.xlsx
+++ b/src/main/resources/test_data/forgot_result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Test Step</t>
   </si>
@@ -35,13 +35,28 @@
     <t>Get open</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Input wrong mail and check message</t>
+  </si>
+  <si>
+    <t>Wrong mail</t>
+  </si>
+  <si>
+    <t>wrong mail</t>
   </si>
   <si>
     <t>Input True mail and check message</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>check mail</t>
   </si>
 </sst>
 </file>
@@ -78,7 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -89,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,19 +141,42 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
